--- a/HW_2_Terminal/Terminal_2.xlsx
+++ b/HW_2_Terminal/Terminal_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LernVK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Terminal\HW_2_Terminal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F5E139D-A47E-4689-8675-C567B05CFA06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A523E7-BC60-4761-BE86-737067FD7595}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{5B9C1D4F-9F87-42B4-B6AB-2524EFBFAB3D}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t xml:space="preserve">  391  cd /d</t>
   </si>
@@ -66,9 +66,6 @@
     <t xml:space="preserve">  403  cat &gt;&gt;tf_3.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">  405  cat &gt;&gt;tf_3.txt</t>
-  </si>
-  <si>
     <t xml:space="preserve">  407  cat &gt;tf_4.txt</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t xml:space="preserve">  434  cp /dev/null inner_dir_1/tf_4.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">  447  find . -type f -name "*tf*"</t>
-  </si>
-  <si>
     <t xml:space="preserve">  458  grep -r sec</t>
   </si>
   <si>
@@ -108,36 +102,9 @@
     <t xml:space="preserve">  461  grep -r -w -i sec</t>
   </si>
   <si>
-    <t xml:space="preserve">  466  grep -r second</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  467  grep -r -i second</t>
-  </si>
-  <si>
     <t xml:space="preserve">  468  cd ..</t>
   </si>
   <si>
-    <t xml:space="preserve">  476  grep -r [^sec]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  478  grep -r -l [^sec]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  479  tail -n4 tf_5/txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  480  tail -n4 tf_5.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  481  cd ..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  482  tail -n4 inner_dir_1/tf_5.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  483  head -n4 inner_dir_1/tf_5.txt</t>
-  </si>
-  <si>
     <t xml:space="preserve">  492  mkdir -p inner_dir_2 &amp;&amp; cd inner_dir_2 &amp;&amp; cat &gt;tf_1_1.txt</t>
   </si>
   <si>
@@ -207,9 +174,6 @@
     <t xml:space="preserve">  404  cat &gt;&gt;tf_2.txt</t>
   </si>
   <si>
-    <t xml:space="preserve">  406  cat &gt;&gt;tf_2.txt</t>
-  </si>
-  <si>
     <t>Вывести содержимое файла tf_3.txt в терминал.</t>
   </si>
   <si>
@@ -249,12 +213,6 @@
     <t>Найти строки в файлах где есть комбинация букв “second” во всех папках ниже уровнем</t>
   </si>
   <si>
-    <t xml:space="preserve">  469  grep -r  second .</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  470  grep -r -l second </t>
-  </si>
-  <si>
     <t>Найти только путь и название файла в строках которых есть комбинация букв “second” в текущей папке</t>
   </si>
   <si>
@@ -282,7 +240,46 @@
     <t>Найти путь к файлам у которых есть  “tf” в названии и буквы в любом регистре.</t>
   </si>
   <si>
-    <t xml:space="preserve">  448 find . -type f -iname "*tf*"</t>
+    <t>посмотреть где находишься</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  405  cat &gt;&gt;./inner_dir_1/tf_3.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  406  cat &gt;&gt;./tf_2.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  447  find -type f -name "*tf*"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  448 find  -type f -iname "*tf*"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  476  grep -r -v second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  478  grep -r -l -v second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  466  grep  second ./*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  467  grep -r -i second ./*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  469  grep -r  second </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  470  grep -l second  ./*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Найти только название и путь к  файлах где нет комбинации “second” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  480  head -n4 inner_dir_1/tf_5.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  479  tail -n4 inner_dir_1/tf_5.txt</t>
   </si>
 </sst>
 </file>
@@ -683,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358BEF4A-22E4-45E4-897F-7ED8981A22B1}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,17 +720,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
@@ -743,7 +742,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
@@ -754,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>5</v>
@@ -765,7 +764,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
@@ -776,7 +775,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
@@ -787,7 +786,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
@@ -798,7 +797,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
@@ -809,7 +808,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
@@ -820,10 +819,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -831,10 +830,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -842,10 +841,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -853,10 +852,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -864,10 +863,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -875,10 +874,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -886,10 +885,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -897,10 +896,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -908,10 +907,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -919,10 +918,10 @@
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -930,10 +929,10 @@
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -941,10 +940,10 @@
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -952,10 +951,10 @@
         <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -963,10 +962,10 @@
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -974,10 +973,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -985,10 +984,10 @@
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -996,10 +995,10 @@
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -1007,10 +1006,10 @@
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -1018,17 +1017,17 @@
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="4"/>
       <c r="C32" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -1036,10 +1035,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -1047,10 +1046,10 @@
         <v>30</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -1058,10 +1057,10 @@
         <v>31</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -1069,10 +1068,10 @@
         <v>32</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -1080,10 +1079,10 @@
         <v>33</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
@@ -1091,101 +1090,76 @@
         <v>34</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="4"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
+        <v>35</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="C39" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
-        <v>33</v>
-      </c>
-      <c r="B40" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>61</v>
+      </c>
       <c r="C40" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
-        <v>34</v>
-      </c>
-      <c r="B41" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="C41" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
-        <v>36</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>75</v>
+        <v>39</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
-        <v>37</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>77</v>
+        <v>40</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>38</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
-        <v>39</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
-        <v>40</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
